--- a/files/filev2.xlsx
+++ b/files/filev2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaire" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Название анкеты</t>
   </si>
@@ -61,7 +61,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Тест Терапевт</t>
+    <t xml:space="preserve">Тест Терапевт_v2</t>
   </si>
   <si>
     <t xml:space="preserve">4, 58</t>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. Выполнение поставленной Цели.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.Результаты визита зафиксированы.</t>
   </si>
 </sst>
 </file>
@@ -867,18 +864,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
